--- a/data/trans_dic/IP16A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A05-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>10,71%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 14,45</t>
+          <t>7,72; 24,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 16,59</t>
+          <t>7,82; 25,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 17,99</t>
+          <t>5,84; 23,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,11</t>
+          <t>4,45; 21,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 13,41</t>
+          <t>3,98; 20,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,62; 25,73</t>
+          <t>11,24; 31,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 15,27</t>
+          <t>2,46; 13,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 10,37</t>
+          <t>4,59; 20,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 11,55</t>
+          <t>7,67; 20,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 17,52</t>
+          <t>11,03; 23,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 13,77</t>
+          <t>5,26; 15,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,57</t>
+          <t>5,89; 17,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 24,27</t>
+          <t>3,38; 14,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 25,02</t>
+          <t>1,69; 16,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,84; 23,36</t>
+          <t>3,45; 17,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,45; 21,86</t>
+          <t>0,0; 6,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 20,86</t>
+          <t>1,45; 13,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,24; 31,02</t>
+          <t>7,62; 25,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 13,94</t>
+          <t>1,62; 15,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 20,8</t>
+          <t>1,54; 10,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,67; 20,12</t>
+          <t>3,4; 11,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 23,93</t>
+          <t>5,9; 17,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 15,56</t>
+          <t>3,61; 13,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,89; 17,04</t>
+          <t>1,18; 5,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A05-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>10,14%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 17,92</t>
+          <t>4,35; 26,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 24,06</t>
+          <t>5,51; 25,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,86; 29,41</t>
+          <t>8,15; 33,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 14,38</t>
+          <t>0,0; 8,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 19,63</t>
+          <t>1,78; 15,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,85; 27,89</t>
+          <t>8,64; 28,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,47; 31,43</t>
+          <t>9,12; 34,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 32,7</t>
+          <t>7,74; 39,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 15,71</t>
+          <t>4,49; 16,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,61; 22,84</t>
+          <t>9,08; 23,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,95; 26,43</t>
+          <t>12,52; 30,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,3; 19,32</t>
+          <t>3,26; 20,78</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>12,28%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 24,27</t>
+          <t>7,36; 23,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,82; 25,02</t>
+          <t>10,13; 25,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 23,36</t>
+          <t>5,8; 22,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 21,86</t>
+          <t>5,67; 22,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 20,86</t>
+          <t>7,38; 24,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,24; 31,02</t>
+          <t>11,58; 30,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 13,94</t>
+          <t>7,61; 25,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 20,8</t>
+          <t>5,98; 25,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,67; 20,12</t>
+          <t>9,08; 20,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,03; 23,93</t>
+          <t>12,47; 24,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 15,56</t>
+          <t>8,36; 20,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,89; 17,04</t>
+          <t>7,07; 19,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>7,56%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 14,45</t>
+          <t>3,02; 25,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 16,59</t>
+          <t>3,06; 26,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 17,99</t>
+          <t>5,25; 26,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,11</t>
+          <t>1,86; 17,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 13,41</t>
+          <t>0,0; 17,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 25,73</t>
+          <t>7,06; 30,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 15,27</t>
+          <t>1,53; 12,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 10,37</t>
+          <t>3,08; 18,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 11,55</t>
+          <t>3,17; 17,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 17,52</t>
+          <t>7,99; 23,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 13,77</t>
+          <t>4,76; 16,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,57</t>
+          <t>3,52; 14,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 15,09</t>
+          <t>0,0; 9,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,82; 18,12</t>
+          <t>0,0; 15,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,73; 18,77</t>
+          <t>0,0; 22,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,12</t>
+          <t>0,0; 4,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 13,73</t>
+          <t>1,93; 15,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,88; 23,92</t>
+          <t>7,18; 30,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 16,59</t>
+          <t>0,0; 21,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 13,79</t>
+          <t>0,0; 8,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 12,52</t>
+          <t>1,82; 10,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,25; 19,17</t>
+          <t>5,03; 19,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,44; 16,06</t>
+          <t>1,84; 15,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,93</t>
+          <t>0,48; 4,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10,2%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,96%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11,69%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,6%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>15,32%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12,34%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 14,35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,84; 18,41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8,66; 18,54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 9,22</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 13,58</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13,17; 23,58</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 17,07</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 13,51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 12,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12,21; 19,42</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9,43; 16,23</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 9,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP16A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A05-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 26,05</t>
+          <t>4,43; 26,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 25,31</t>
+          <t>5,47; 23,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,15; 33,73</t>
+          <t>8,41; 33,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,67</t>
+          <t>0,0; 8,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 15,93</t>
+          <t>1,77; 14,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 28,81</t>
+          <t>9,18; 30,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 34,44</t>
+          <t>10,42; 32,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 39,9</t>
+          <t>7,45; 43,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 16,41</t>
+          <t>4,24; 16,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,08; 23,02</t>
+          <t>9,15; 22,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,52; 30,24</t>
+          <t>12,04; 28,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 20,78</t>
+          <t>3,92; 20,72</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 23,76</t>
+          <t>7,74; 23,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,13; 25,27</t>
+          <t>9,74; 25,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 22,31</t>
+          <t>5,97; 21,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 22,14</t>
+          <t>5,93; 22,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,38; 24,75</t>
+          <t>7,39; 23,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,58; 30,8</t>
+          <t>11,53; 30,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,61; 25,43</t>
+          <t>7,91; 25,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 25,3</t>
+          <t>6,07; 26,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,08; 20,33</t>
+          <t>8,66; 20,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,47; 24,05</t>
+          <t>12,24; 23,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,36; 20,33</t>
+          <t>8,4; 20,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 19,11</t>
+          <t>7,72; 20,07</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 25,87</t>
+          <t>2,91; 25,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 26,89</t>
+          <t>2,73; 26,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 26,86</t>
+          <t>4,83; 25,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 17,61</t>
+          <t>1,96; 17,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,75</t>
+          <t>0,0; 20,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 30,57</t>
+          <t>7,4; 31,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 12,91</t>
+          <t>1,53; 12,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 18,27</t>
+          <t>2,94; 18,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 17,29</t>
+          <t>3,02; 16,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 23,98</t>
+          <t>7,85; 23,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 16,13</t>
+          <t>4,27; 15,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 14,97</t>
+          <t>3,1; 14,39</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,78</t>
+          <t>0,0; 9,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,75</t>
+          <t>0,0; 15,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,21</t>
+          <t>0,0; 23,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,76</t>
+          <t>0,0; 5,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 15,74</t>
+          <t>1,97; 17,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 30,79</t>
+          <t>5,85; 29,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,94</t>
+          <t>0,0; 23,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,02</t>
+          <t>0,0; 8,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 10,9</t>
+          <t>1,77; 10,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 19,92</t>
+          <t>5,01; 19,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 15,87</t>
+          <t>3,31; 16,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,57</t>
+          <t>0,47; 4,22</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,35</t>
+          <t>6,72; 14,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,84; 18,41</t>
+          <t>8,9; 17,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 18,54</t>
+          <t>8,6; 19,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,22</t>
+          <t>2,89; 9,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 13,58</t>
+          <t>5,35; 13,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,17; 23,58</t>
+          <t>13,14; 23,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,9; 17,07</t>
+          <t>7,54; 16,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 13,51</t>
+          <t>5,42; 13,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,08; 12,81</t>
+          <t>6,96; 12,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,21; 19,42</t>
+          <t>11,98; 18,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,43; 16,23</t>
+          <t>9,31; 15,96</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,84</t>
+          <t>4,91; 9,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A05-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A05-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19,82%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20,82%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>11,91%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>12,66%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>19,25%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,85%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>17,86%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>19,82%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>9,79%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,43; 26,44</t>
+          <t>1,75; 16,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 23,47</t>
+          <t>9,01; 29,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,41; 33,23</t>
+          <t>10,01; 33,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,79</t>
+          <t>7,87; 40,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 14,81</t>
+          <t>4,43; 26,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 30,26</t>
+          <t>5,06; 24,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,42; 32,85</t>
+          <t>8,42; 34,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 43,25</t>
+          <t>0,0; 13,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 16,64</t>
+          <t>4,4; 16,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,15; 22,64</t>
+          <t>9,23; 23,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,04; 28,93</t>
+          <t>12,1; 29,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 20,72</t>
+          <t>3,99; 19,21</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>14,16%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19,46%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14,72%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15,58%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>13,99%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>16,56%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>12,45%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,85%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,16%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>19,46%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>14,72%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>13,61%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 23,64</t>
+          <t>7,45; 24,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,74; 25,64</t>
+          <t>11,43; 30,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,97; 21,94</t>
+          <t>8,46; 26,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 22,16</t>
+          <t>7,43; 34,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 23,91</t>
+          <t>7,46; 22,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,53; 30,62</t>
+          <t>9,62; 25,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 25,64</t>
+          <t>6,03; 24,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 26,13</t>
+          <t>5,84; 21,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,66; 20,38</t>
+          <t>8,84; 21,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,24; 23,8</t>
+          <t>12,37; 24,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,4; 20,42</t>
+          <t>8,07; 19,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 20,07</t>
+          <t>8,15; 23,04</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>11,53%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>11,71%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>13,64%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,74%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,76%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>16,87%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,83%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,39%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 25,6</t>
+          <t>0,0; 17,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 26,75</t>
+          <t>6,98; 29,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 25,62</t>
+          <t>1,52; 13,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 17,77</t>
+          <t>3,1; 18,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,26</t>
+          <t>2,88; 23,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 31,45</t>
+          <t>3,04; 27,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 12,92</t>
+          <t>6,33; 26,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 18,07</t>
+          <t>1,82; 17,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 16,95</t>
+          <t>3,07; 18,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 23,99</t>
+          <t>7,77; 23,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 15,56</t>
+          <t>4,28; 15,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 14,39</t>
+          <t>3,13; 13,7</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15,75%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>3,23%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>5,13%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>6,65%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,5%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>15,75%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,13%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,98</t>
+          <t>1,99; 19,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,68</t>
+          <t>7,32; 30,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,53</t>
+          <t>0,0; 22,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,38</t>
+          <t>0,0; 6,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 17,29</t>
+          <t>0,0; 11,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 29,4</t>
+          <t>0,0; 16,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,5</t>
+          <t>0,0; 20,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,34</t>
+          <t>0,0; 5,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 10,1</t>
+          <t>1,76; 10,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 19,75</t>
+          <t>5,08; 19,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 16,33</t>
+          <t>1,83; 16,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,22</t>
+          <t>0,31; 3,73</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,69%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>10,2%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>12,96%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>13,03%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,9%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>17,86%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>11,69%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 14,99</t>
+          <t>5,51; 13,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,9; 17,88</t>
+          <t>12,88; 23,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,6; 19,06</t>
+          <t>7,52; 16,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 9,25</t>
+          <t>4,64; 14,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 13,7</t>
+          <t>6,49; 15,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,14; 23,39</t>
+          <t>8,82; 18,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 16,69</t>
+          <t>8,73; 18,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 13,73</t>
+          <t>2,76; 9,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,96; 12,64</t>
+          <t>6,83; 12,52</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,98; 18,62</t>
+          <t>12,25; 19,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,31; 15,96</t>
+          <t>9,44; 16,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,59</t>
+          <t>4,64; 10,42</t>
         </is>
       </c>
     </row>
